--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F11" t="n">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Los Parques S.A</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar Santa Rebeca SPA</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>Malloco Solar SpA.</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J212"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loteo Compositor Vicente Bianchi Alarcón y Loteo Pintor Alfredo Helsby.</t>
+          <t>MOLINO PEÑAFLOR CMSC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Compañía Molinera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/08/2021</t>
+          <t>25/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152876190&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160350706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Malloco</t>
+          <t>Loteo Compositor Vicente Bianchi Alarcón y Loteo Pintor Alfredo Helsby.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Malloco Solar SpA.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>16/08/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151189324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152876190&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Rebeca</t>
+          <t>Proyecto Fotovoltaico Malloco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Solar Santa Rebeca SPA</t>
+          <t>Malloco Solar SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151202067&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151189324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Cementerio Parque del Recuerdo Padre Hurtado</t>
+          <t>Parque Fotovoltaico Santa Rebeca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>Parque Solar Santa Rebeca SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/02/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145352917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151202067&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,30 +616,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Ampliación Cementerio Parque del Recuerdo Padre Hurtado</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145352917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación proyecto normalización y optimización bodegas de insumos agrícolas, Planta Malloco Agrogestion Vitra S.A.</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agrogestión Vitra S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141938125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
+          <t>Modificación proyecto normalización y optimización bodegas de insumos agrícolas, Planta Malloco Agrogestion Vitra S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Agrogestión Vitra S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20425</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/05/2018</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141938125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación RCA N°082/2010. Conjunto Habitacional Portal Los Artesanos. Segunda Etapa</t>
+          <t>PARQUE FOTOVOLTAICO LOS CORRALES DEL VERANO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fundación Invica</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>37358</v>
+        <v>20425</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25/04/2018</t>
+          <t>22/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138958476&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139180414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Corrales del Verano</t>
+          <t>Modificación RCA N°082/2010. Conjunto Habitacional Portal Los Artesanos. Segunda Etapa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Peteroa Energy SpA</t>
+          <t>Fundación Invica</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20425</v>
+        <v>37358</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/04/2018</t>
+          <t>25/04/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138958476&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Parque Fotovoltaico Los Corrales del Verano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
+          <t>Peteroa Energy SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>118526</v>
+        <v>20425</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/01/2018</t>
+          <t>20/04/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138977232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal Los Artesanos</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fundación Invica</t>
+          <t>Sociedad Concesionaria Autopista San Antonio-Stgo S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37358</v>
+        <v>118526</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11/09/2017</t>
+          <t>23/01/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132692649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138202410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PID Terceras Pistas Santiago-Talagante</t>
+          <t>Conjunto Habitacional Portal Los Artesanos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
+          <t>Fundación Invica</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>118526</v>
+        <v>37358</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/08/2017</t>
+          <t>11/09/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132692649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Villa CONAVICOOP, Peñaflor</t>
+          <t>PID Terceras Pistas Santiago-Talagante</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Sociedad Concesionaria Autopista del Sol S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22000</v>
+        <v>118526</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/04/2017</t>
+          <t>24/08/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132303469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132621691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Portal Los Artesanos</t>
+          <t>Villa CONAVICOOP, Peñaflor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fundación Invica</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>35922</v>
+        <v>22000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>26/01/2017</t>
+          <t>07/04/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132080365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132303469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESAMIENTO DE NUECES</t>
+          <t>Conjunto Habitacional Portal Los Artesanos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Servac S.A</t>
+          <t>Fundación Invica</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2500</v>
+        <v>35922</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/01/2017</t>
+          <t>26/01/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132079391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132080365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Champion Planta Malloco</t>
+          <t>PLANTA DE PROCESAMIENTO DE NUECES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Proa S.A.</t>
+          <t>Servac S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>270</v>
+        <v>2500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>18/01/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131248447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132079391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Las Palmeras de Malloco</t>
+          <t>Sistema de Tratamiento de RILes para Champion Planta Malloco</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Viviendas Económicas Cinco de Abril S.A.</t>
+          <t>Proa S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27000</v>
+        <v>270</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/02/2016</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131135915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131248447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tren Alameda Melipilla</t>
+          <t>Las Palmeras de Malloco</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Empresa De Los Ferrocarriles del Estado</t>
+          <t>Viviendas Económicas Cinco de Abril S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.1</v>
+        <v>27000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/12/2015</t>
+          <t>02/02/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131135915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Villa Conavicoop, Peñaflor</t>
+          <t>Tren Alameda Melipilla</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Empresa De Los Ferrocarriles del Estado</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>22000</v>
+        <v>1.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>24/12/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130871227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131003576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN Y AMPLIACIÓN CEMENTERIO PARQUE DEL RECUERDO PADRE HURTADO</t>
+          <t>Villa Conavicoop, Peñaflor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Los Parques S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6500</v>
+        <v>22000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/09/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130785694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130871227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>OPTIMIZACIÓN Y AMPLIACIÓN CEMENTERIO PARQUE DEL RECUERDO PADRE HURTADO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Los Parques S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>24/09/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130785694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NORMALIZACIÓN Y OPTIMIZACIÓN BODEGA DE INSUMOS AGRÍCOLAS, PLANTA MALLOCO</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AGROGESTIÓN VITRA LIMITADA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>849</v>
+        <v>17000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/07/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>NORMALIZACIÓN Y OPTIMIZACIÓN BODEGA DE INSUMOS AGRÍCOLAS, PLANTA MALLOCO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>AGROGESTIÓN VITRA LIMITADA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>849</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>22/07/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129632646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Almacenaje de Sustancias Peligrosas, Planta Malloco"</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AGROGESTIÓN VITRA LIMITADA.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PDI (Pre Delivery Inspection) Gildemeister Peñaflor</t>
+          <t>"Almacenaje de Sustancias Peligrosas, Planta Malloco"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Automotores Gildemeister S.A.</t>
+          <t>AGROGESTIÓN VITRA LIMITADA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>47493</v>
+        <v>690</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128946606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Terminal de Buses No Urbanos BUPESA</t>
+          <t>PDI (Pre Delivery Inspection) Gildemeister Peñaflor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE SERVICIO DE TRANSPORTE DE PASAJEROS PEÑAFLOR - SANTIAGO LIMITADA</t>
+          <t>Automotores Gildemeister S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>47493</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/11/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817934&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128933436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Terminal de Buses No Urbanos BUPESA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>COOPERATIVA DE SERVICIO DE TRANSPORTE DE PASAJEROS PEÑAFLOR - SANTIAGO LIMITADA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>19/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817934&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Traslado planta productiva e implementación sistema de tratamiento de RILES Good Food S.A.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Good Food S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12796</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8267791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Traslado planta productiva e implementación sistema de tratamiento de RILES Good Food S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Good Food S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2050</v>
+        <v>12796</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8267791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bodegas de Sustancias Peligrosas, Malloco</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AGROGESTIÓN VITRA LIMITADA.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>726</v>
+        <v>2050</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8335834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Bodegas de Sustancias Peligrosas, Malloco</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>AGROGESTIÓN VITRA LIMITADA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/07/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8335834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad Productiva Planta de Productos de Acero</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fundición Las Rosas S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ampliación Capacidad Productiva Planta de Productos de Acero</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Fundición Las Rosas S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>26/04/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8105394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Procesadora Aguas Claras Ltda</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>REGULARIZACIÓN PISCICULTURA PEÑAFLOR 2, REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Procesadora Aguas Claras Ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>319</v>
+        <v>120</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6129757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Modificación al manejo de mortalidad mediante la instalación de un Sistema de Ensilaje de la Piscicultura aprobada por la Resolución de Calificación Ambiental N° 462/2008</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Esturiones Andes Chile S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>32</v>
+        <v>12000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5521038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Modificación al manejo de mortalidad mediante la instalación de un Sistema de Ensilaje de la Piscicultura aprobada por la Resolución de Calificación Ambiental N° 462/2008</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Esturiones Andes Chile S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>12000</v>
+        <v>32</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>07/04/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5521038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Modificación Manejo de Mortalidades Utilizando Sistema de Ensilaje para Piscicultura Peñaflor - Trusal S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>12000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5142912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Modificación manejo de mortalidades utilizando sistema de ensilaje para piscicultura Peñaflor-Trusal S.A.</t>
+          <t>Modificación Manejo de Mortalidades Utilizando Sistema de Ensilaje para Piscicultura Peñaflor - Trusal S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/11/2010</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5142912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reciclaje de paños de limpieza</t>
+          <t>Modificación manejo de mortalidades utilizando sistema de ensilaje para piscicultura Peñaflor-Trusal S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Reciclajes Ecotrans Limitada</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>23/11/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5007182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5089212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Reciclaje de paños de limpieza</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Reciclajes Ecotrans Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>20/10/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5007182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4800</v>
+        <v>230</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>223</v>
+        <v>4800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PEÑAFLOR</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Peñaflor</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>PLAN REGULADOR COMUNAL DE PEÑAFLOR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>23/06/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4662503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>1750</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Aumento de Potencia Planta Chilempack (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Chilempack S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>182</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4161103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Aumento de Potencia Planta Chilempack (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Comercial hual</t>
+          <t>Chilempack S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/10/2009</t>
+          <t>05/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4161103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Comercial hual</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>27/10/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Alfredo Alfaro Motles</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO PLANTA ECOTRANS MALLOCO (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS ELECTRONICOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Reciclajes Ecotrans Limitada</t>
+          <t>Alfredo Alfaro Motles</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/02/2009</t>
+          <t>28/05/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546556&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3794975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO PLANTA ECOTRANS MALLOCO (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Reciclajes Ecotrans Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>140</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>06/02/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546556&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO PLANTA ECOTRANS MALLOCO (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Reciclajes Ecotrans Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>140</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO PLANTA ECOTRANS MALLOCO (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Reciclajes Ecotrans Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>11/12/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3413916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>160</v>
+        <v>3408</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>16130</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>13/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Construcción de Obras Fluviales Río Mapocho, Sector Rural, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>16130</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>13/05/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2899070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Los Artesanos Exp. 040/08 (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>INVICA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>29000</v>
+        <v>200</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733486&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Conjunto Habitacional Los Artesanos Exp. 040/08 (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INVICA</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>29000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>25/02/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2733486&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,30 +7058,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7359,17 +7359,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura y Solicitud de Modificación Resolución de Calificación Ambiental Nº 642/98 (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Esturiones Andes Chile S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación Piscicultura y Solicitud de Modificación Resolución de Calificación Ambiental Nº 642/98 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,30 +7730,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad Esturiones Andes Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7791,17 +7791,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>860</v>
+        <v>40</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8175,17 +8175,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,17 +8271,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8367,17 +8367,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Veronica Serrano madrid</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>27/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>MPRMS 73, Analisis Integrado Plan Intercomunal de Talagante-Melipilla, Buin - Paine MPRMS 73, Analisis Integrado Plan Intercomunal de (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,20 +8738,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Veronica Serrano madrid</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>27/07/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8795,11 +8795,11 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>855</v>
+        <v>40</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8895,17 +8895,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,25 +8935,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,20 +9074,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>02/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional La Arboleda de Peñaflor II (e-seia)</t>
+          <t>Modificación al Plan Regulador de Santiago "MPRMS-66, Incorpora ISAM.9 y Modifica ISAM.3, Sector Ruta 5 Sur/Camino Internacional, Comunas de San Bernardo y Calera de Tango (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES DIEZ, LUONGO, WEIL Y CÍA. LTDA.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3203</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/03/2003</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63460&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=65642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Conjunto Habitacional La Arboleda de Peñaflor II (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>INMOBILIARIA E INVERSIONES DIEZ, LUONGO, WEIL Y CÍA. LTDA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>177</v>
+        <v>3203</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>28/03/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=63460&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,30 +9208,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>23/12/2002</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,22 +9256,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -9279,17 +9279,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>23/12/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -9327,17 +9327,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Estación de Servicio Shell Av. V. Mackenna Nº 1545 Peñaflor</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Carampangue Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5437&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Construcción de Soluciones Sanitarias Campamento La Manana</t>
+          <t>Estación de Servicio Shell Av. V. Mackenna Nº 1545 Peñaflor</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Comite de allegados de Malloco</t>
+          <t>Inmobiliaria e inversiones Carampangue Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>20/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5437&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción de Soluciones Sanitarias Campamento La Manana</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,30 +9458,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Comite de allegados de Malloco</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>20/03/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos CHAMPION S.A. Planta Seleccionadora de Huevos</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,30 +9506,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Champion S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>31/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,30 +9544,30 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos CHAMPION S.A. Planta Seleccionadora de Huevos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Champion S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1230</v>
+        <v>100</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>31/05/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3943&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,30 +9592,30 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,12 +9650,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>DEGESCH de Chile Ltda.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21/02/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,12 +9688,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos de Fumigante que Contienen Fosfuro de Aluminio desde el Puerto de San Antonio hasta las Instalaciones de DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>DEGESCH de Chile Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>21/02/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,12 +9736,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Plan Regulador Comunal de Peñaflor</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,20 +9794,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Peñaflor</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>24/11/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Mejoramiento del Servicio de Agua Potable para la Localidad de Malloco - Peñaflor</t>
+          <t>Proyecto Plan Regulador Comunal de Peñaflor</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>I. Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>29/10/1999</t>
+          <t>24/11/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta Procesadora y Envasadora de Sal Malloco</t>
+          <t>Mejoramiento del Servicio de Agua Potable para la Localidad de Malloco - Peñaflor</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>K+S Chile S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>11500</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>29/10/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Las Brisas de Peñaflor</t>
+          <t>Planta Procesadora y Envasadora de Sal Malloco</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Empresa Constructora de Viviendas Económicas Diez - Luongo - Weil y Compañía Ltda.</t>
+          <t>K+S Chile S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Conjunto Habitacional Las Brisas de Peñaflor</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,20 +9986,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Empresa Constructora de Viviendas Económicas Diez - Luongo - Weil y Compañía Ltda.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>11500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta Industrial de Partes y Componentes Metalúrgicos de Aceros Especiales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,20 +10034,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Fundición Las Rosas S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>24/03/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ampliación Cementerio Padre Hurtado de Malloco</t>
+          <t>Planta Industrial de Partes y Componentes Metalúrgicos de Aceros Especiales</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Peñaflor</t>
+          <t>Fundición Las Rosas S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>120</v>
+        <v>7500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>24/03/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Ampliación Cementerio Padre Hurtado de Malloco</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,20 +10130,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>I. Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>20000</v>
+        <v>120</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>18/01/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Molino de Granos en Malloco</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,20 +10178,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>EQUIL S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>10/11/1998</t>
+          <t>18/01/1999</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Modificación Transporte de Ácido Sulfúrico Excedente Fundición Caletones - Fase1</t>
+          <t>Molino de Granos en Malloco</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,20 +10226,20 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EQUIL S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>03/11/1998</t>
+          <t>10/11/1998</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliación de Planta de Producción de Smolt de Salmón y Trucha</t>
+          <t>Modificación Transporte de Ácido Sulfúrico Excedente Fundición Caletones - Fase1</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,20 +10274,20 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad Esturiones Andes Chile S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05/06/1998</t>
+          <t>03/11/1998</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
+          <t>Ampliación de Planta de Producción de Smolt de Salmón y Trucha</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,20 +10322,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Sociedad Esturiones Andes Chile S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>05/06/1998</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,40 +10456,40 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Centro de Distribución de Cementos</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Minera Melón S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>57000</v>
+        <v>11000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>19/11/1997</t>
+          <t>25/03/1998</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,43 +10504,91 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>Centro de Distribución de Cementos</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Minera Melón S.A.</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>19/11/1997</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=212&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Peñaflor</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F212" t="n">
+      <c r="F213" t="n">
         <v>850000</v>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="I213" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>Peñaflor</t>
         </is>

--- a/data/Peñaflor.xlsx
+++ b/data/Peñaflor.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/10/2023</t>
+          <t>30/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
